--- a/TestData/TMTC0032670_VerifyThatDelegateOfAPrimaryAttendeeBankerCan_Add_View_Edit_SendNotification_Delete_TheActivity.xlsx
+++ b/TestData/TMTC0032670_VerifyThatDelegateOfAPrimaryAttendeeBankerCan_Add_View_Edit_SendNotification_Delete_TheActivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0E700-DA82-4F6D-B431-7CD1B0CFD33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B370053-8BEB-4A57-B1BA-02DF899AA417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Type</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Delegate</t>
-  </si>
-  <si>
-    <t>Christine Goodridge</t>
   </si>
   <si>
     <t>Delegate Meeting Subject 1</t>
@@ -474,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +487,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -597,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -660,12 +657,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD5835D-A731-4749-8B8C-898BB7148BBB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -717,25 +714,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
